--- a/medicine/Mort/Cimetière_Saint-Denis_de_Châteauroux/Cimetière_Saint-Denis_de_Châteauroux.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Denis_de_Châteauroux/Cimetière_Saint-Denis_de_Châteauroux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Denis_de_Ch%C3%A2teauroux</t>
+          <t>Cimetière_Saint-Denis_de_Châteauroux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Denis est le cimetière le plus ancien de la ville de Châteauroux dans l'Indre. C'est aussi le seul à se trouver à l'intérieur de la ville, contrairement au cimetière Saint-Christophe et au cimetière de Cré[1]. Il donne rue des États-Unis[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Denis est le cimetière le plus ancien de la ville de Châteauroux dans l'Indre. C'est aussi le seul à se trouver à l'intérieur de la ville, contrairement au cimetière Saint-Christophe et au cimetière de Cré. Il donne rue des États-Unis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Denis_de_Ch%C3%A2teauroux</t>
+          <t>Cimetière_Saint-Denis_de_Châteauroux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Denis a ouvert en 1819[3]. Ce vaste cimetière de 7 hectares[4] au gré de ses agrandissements successifs est riche d'un patrimoine varié avec nombre de chapelles et de tombes intéressantes d'un point de vue artistique (bustes, bas-reliefs...) ou historique, sauf dans la partie moderne standardisée et non arborée. Les verrières de la chapelle de la famille Testaud de Marchain par Joseph-Prosper Florence, maître-verrier à Tours, sont inscrites au patrimoine[5].
-Deux carrés militaires se trouvent près de l'entrée principale. Dans l'un, le visiteur peut remarquer une sculpture d'un soldat en pleurs à genoux[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Denis a ouvert en 1819. Ce vaste cimetière de 7 hectares au gré de ses agrandissements successifs est riche d'un patrimoine varié avec nombre de chapelles et de tombes intéressantes d'un point de vue artistique (bustes, bas-reliefs...) ou historique, sauf dans la partie moderne standardisée et non arborée. Les verrières de la chapelle de la famille Testaud de Marchain par Joseph-Prosper Florence, maître-verrier à Tours, sont inscrites au patrimoine.
+Deux carrés militaires se trouvent près de l'entrée principale. Dans l'un, le visiteur peut remarquer une sculpture d'un soldat en pleurs à genoux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Denis_de_Ch%C3%A2teauroux</t>
+          <t>Cimetière_Saint-Denis_de_Châteauroux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gabriel-Albert Aurier (1865-1892), homme de lettres mort de la typhoïde, cofondateur du Mercure de France[7]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gabriel-Albert Aurier (1865-1892), homme de lettres mort de la typhoïde, cofondateur du Mercure de France
 Joseph Bellier (1854-1936), maire de Châteauroux, député de l'Indre (colonne)
 Féral Benga (1906-1957), danseur, chorégraphe
 Daniel Bernardet (1927-2007), maire de Châteauroux, député de l'Indre, sénateur
-Henry Berton (1874-1943), avocat, écrivain (buste)[6]
+Henry Berton (1874-1943), avocat, écrivain (buste)
 Jean-Claude Charlemagne (1762-1853), maire d'Issoudun, député de l'Indre sous la Restauration avec son fils Edmond Charlemagne (1795-1872), également député (chapelle Charlemagne)
 Raoul Charlemagne (1821-1902), fils d'Edmond, député (chapelle Charlemagne)
 Adolphe Combanaire (1859-1939), explorateur de l'Asie
@@ -558,14 +574,14 @@
 François Gerbaud (1927-2010), journaliste et député gaulliste de l'Indre, puis sénateur
 Narcisse Giraud-Dupin (1836-1898), sculpteur et restaurateur d'églises
 Eugène Grillon (1800-1868), maire de Châteauroux et député sous le Second Empire (chapelle)
-Jérôme Legrand (1746-1817), député du Tiers-État pour la généralité de Bourges, puis député de l'Indre (inhumé dans la chapelle Charlemagne de la famille de son gendre)[8]
+Jérôme Legrand (1746-1817), député du Tiers-État pour la généralité de Bourges, puis député de l'Indre (inhumé dans la chapelle Charlemagne de la famille de son gendre)
 Ernest Nivet (1871-1948), sculpteur (statue de pleureuse)
 Joseph Patureau-Mirand, (1873-1945), maire de Châteauroux et député de l'Indre et son frère Anselme Patureau-Mirand (1875-1958), également député
 Pierre-Auguste Olinde Pétel (1836-1897), gendre d'Alexandre Dumas
 Sarah Rancy dite Sarah Caryth (née Joyaux, 1897-1979), dresseuse de fauves, puis antiquaire
 Maurice Rollinat (1846-1903), poète; et son père le député François Rollinat (1806-1867), ami de George Sand
 Paul Rue (1866-1954), peintre (chapelle)
-Guillaume Thabaud-Boislareine (1755-1836), conventionnel qui vota la mort de Louis XVI, baron d'Empire (tombe la plus ancienne du cimetière)[4]
+Guillaume Thabaud-Boislareine (1755-1836), conventionnel qui vota la mort de Louis XVI, baron d'Empire (tombe la plus ancienne du cimetière)
 Just Veillat (1813-1866), fondateur du musée de Châteauroux et peintre</t>
         </is>
       </c>
